--- a/doc/생산/bza1000/IM1021060034/RPT_IM1021060034.xlsx
+++ b/doc/생산/bza1000/IM1021060034/RPT_IM1021060034.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SM_Git_Repositories\software-bza-sm\doc\생산\bza1000\IM1021060034\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683FCBE3-794C-4B2C-A278-739F962C3E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64022DB5-EBC9-4C48-BBEB-C3C1C85024F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="34620" windowHeight="14160" xr2:uid="{306C1654-445C-4862-9693-AC958B09CE97}"/>
+    <workbookView xWindow="19720" yWindow="0" windowWidth="18950" windowHeight="13940" xr2:uid="{306C1654-445C-4862-9693-AC958B09CE97}"/>
   </bookViews>
   <sheets>
     <sheet name="IM1021060034" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -360,35 +367,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,7 +717,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -720,14 +727,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -750,7 +757,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="7">
@@ -772,7 +779,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="7">
         <v>20</v>
       </c>
@@ -792,7 +799,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7">
         <v>50</v>
       </c>
@@ -812,7 +819,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="10">
         <v>100</v>
       </c>
@@ -832,17 +839,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="13">
@@ -864,7 +871,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="16">
         <v>200</v>
       </c>
@@ -884,7 +891,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="16">
         <v>500</v>
       </c>
@@ -904,7 +911,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="17">
         <v>1000</v>
       </c>
@@ -924,17 +931,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="18">
@@ -956,7 +963,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="19">
         <v>0</v>
       </c>
@@ -976,7 +983,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="19">
         <v>50</v>
       </c>
@@ -996,7 +1003,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="20">
         <v>100</v>
       </c>
@@ -1016,17 +1023,17 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="21">
@@ -1047,7 +1054,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="25">
         <v>10</v>
       </c>
@@ -1067,7 +1074,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="25">
         <v>100</v>
       </c>
@@ -1087,7 +1094,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="25">
         <v>1000</v>
       </c>
@@ -1107,7 +1114,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="29">
         <v>4000</v>
       </c>
@@ -1127,14 +1134,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1173,8 +1180,8 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="F25" s="15" t="str">
-        <f>IF(ABS(E25)&lt;=0.1, "OK", "NOK")</f>
-        <v>NOK</v>
+        <f>IF(ABS(E25)&lt;=0.2, "OK", "NOK")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1220,14 +1227,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
@@ -1293,14 +1300,14 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34">
@@ -1366,14 +1373,14 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34">
@@ -1397,22 +1404,22 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45">
+      <c r="A38" s="37">
         <v>1</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="37">
         <v>9.9965499999999992</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="37">
         <v>-1.3939899999999999E-3</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="37">
         <v>9.9965499999999992</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="37">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="F38" s="46" t="str">
+      <c r="F38" s="38" t="str">
         <f>IF(ABS(E38)&lt;=0.1, "OK", "NOK")</f>
         <v>OK</v>
       </c>
@@ -1439,17 +1446,19 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A6"/>
@@ -1461,11 +1470,9 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1.0629921259842521" right="0.86614173228346458" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>